--- a/TestTimes .xlsx
+++ b/TestTimes .xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="532"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7905" tabRatio="532" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
   <si>
     <t>Test</t>
   </si>
@@ -227,6 +228,45 @@
   </si>
   <si>
     <t>Bugs Identified</t>
+  </si>
+  <si>
+    <t>Fault Matrix</t>
+  </si>
+  <si>
+    <t>Bug #1</t>
+  </si>
+  <si>
+    <t>Bug #2</t>
+  </si>
+  <si>
+    <t>Bug #3</t>
+  </si>
+  <si>
+    <t>Bug #4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blank view stats page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blank 'post status' spinner </t>
+  </si>
+  <si>
+    <t>Dashboard.java</t>
+  </si>
+  <si>
+    <t>EditPost.java</t>
+  </si>
+  <si>
+    <t>ViewPostFragment.java</t>
+  </si>
+  <si>
+    <t>ViewStats.java</t>
+  </si>
+  <si>
+    <t>Reversed actions of Add Account &amp; Preference menu items</t>
+  </si>
+  <si>
+    <t>Remove blog leads to crash</t>
   </si>
 </sst>
 </file>
@@ -237,7 +277,7 @@
     <numFmt numFmtId="164" formatCode="##0.000"/>
     <numFmt numFmtId="165" formatCode="00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -269,8 +309,60 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,8 +405,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99FF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -322,11 +426,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -347,9 +469,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -358,9 +477,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -374,6 +490,69 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,6 +561,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99FF99"/>
       <color rgb="FFCC66FF"/>
       <color rgb="FF3399FF"/>
       <color rgb="FFFF3300"/>
@@ -666,15 +846,17 @@
   </sheetPr>
   <dimension ref="B1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U16" sqref="U1:V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="15" width="8.5703125"/>
     <col min="16" max="16" width="8.5703125" style="5"/>
-    <col min="17" max="1025" width="8.5703125"/>
+    <col min="17" max="25" width="8.5703125"/>
+    <col min="26" max="26" width="24.140625" customWidth="1"/>
+    <col min="27" max="1025" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:22" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -711,14 +893,14 @@
         <v>1</v>
       </c>
       <c r="P1" s="11"/>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="12"/>
-      <c r="U1" s="16" t="s">
+      <c r="R1" s="21"/>
+      <c r="U1" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="V1" s="16"/>
+      <c r="V1" s="22"/>
     </row>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -751,18 +933,19 @@
       <c r="O2">
         <v>4.516</v>
       </c>
-      <c r="Q2" s="3" t="str">
-        <f>H2</f>
-        <v>3-00</v>
-      </c>
-      <c r="R2" s="3">
-        <f>I2</f>
-        <v>105.128</v>
-      </c>
-      <c r="U2" s="15" t="s">
+      <c r="Q2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="V2" s="14" t="s">
+      <c r="R2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="13" t="s">
         <v>67</v>
       </c>
     </row>
@@ -797,19 +980,18 @@
       <c r="O3">
         <v>4.5209999999999999</v>
       </c>
-      <c r="Q3" s="4" t="str">
-        <f>B30</f>
-        <v>1-28</v>
-      </c>
-      <c r="R3" s="4">
-        <f>C30</f>
-        <v>16.515000000000001</v>
-      </c>
-      <c r="S3" s="20"/>
-      <c r="U3" s="13" t="s">
+      <c r="Q3" s="3" t="str">
+        <f>H2</f>
+        <v>3-00</v>
+      </c>
+      <c r="R3" s="3">
+        <f>I2</f>
+        <v>105.128</v>
+      </c>
+      <c r="U3" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="V3" s="17">
+      <c r="V3" s="15">
         <v>3</v>
       </c>
     </row>
@@ -845,18 +1027,18 @@
         <v>75.281999999999996</v>
       </c>
       <c r="Q4" s="4" t="str">
-        <f>E5</f>
-        <v>2-03</v>
+        <f>B30</f>
+        <v>1-28</v>
       </c>
       <c r="R4" s="4">
-        <f>F5</f>
-        <v>95.703000000000003</v>
-      </c>
-      <c r="S4" s="20"/>
-      <c r="U4" s="13" t="s">
+        <f>C30</f>
+        <v>16.515000000000001</v>
+      </c>
+      <c r="S4" s="18"/>
+      <c r="U4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="V4" s="17">
+      <c r="V4" s="15">
         <v>3</v>
       </c>
     </row>
@@ -886,17 +1068,18 @@
         <v>13.927</v>
       </c>
       <c r="Q5" s="4" t="str">
-        <f>E3</f>
-        <v>2-01</v>
+        <f>E5</f>
+        <v>2-03</v>
       </c>
       <c r="R5" s="4">
-        <f>F3</f>
-        <v>151.19800000000001</v>
-      </c>
-      <c r="U5" s="13" t="s">
+        <f>F5</f>
+        <v>95.703000000000003</v>
+      </c>
+      <c r="S5" s="18"/>
+      <c r="U5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="V5" s="17">
+      <c r="V5" s="15">
         <v>3</v>
       </c>
     </row>
@@ -920,18 +1103,17 @@
         <v>101.878</v>
       </c>
       <c r="Q6" s="4" t="str">
-        <f>K2</f>
-        <v>4-00</v>
+        <f>E3</f>
+        <v>2-01</v>
       </c>
       <c r="R6" s="4">
-        <f>L2</f>
-        <v>92.778999999999996</v>
-      </c>
-      <c r="S6" s="20"/>
-      <c r="U6" s="13" t="s">
+        <f>F3</f>
+        <v>151.19800000000001</v>
+      </c>
+      <c r="U6" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="V6" s="21">
+      <c r="V6" s="19">
         <v>4</v>
       </c>
     </row>
@@ -955,18 +1137,18 @@
         <v>18.943999999999999</v>
       </c>
       <c r="Q7" s="4" t="str">
-        <f>N4</f>
-        <v>5-02</v>
+        <f>K2</f>
+        <v>4-00</v>
       </c>
       <c r="R7" s="4">
-        <f>O4</f>
-        <v>75.281999999999996</v>
-      </c>
-      <c r="S7" s="22"/>
-      <c r="U7" s="13" t="s">
+        <f>L2</f>
+        <v>92.778999999999996</v>
+      </c>
+      <c r="S7" s="18"/>
+      <c r="U7" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="V7" s="19">
+      <c r="V7" s="17">
         <v>1</v>
       </c>
     </row>
@@ -990,17 +1172,18 @@
         <v>20.689</v>
       </c>
       <c r="Q8" s="4" t="str">
-        <f>N6</f>
-        <v>5-04</v>
+        <f>N4</f>
+        <v>5-02</v>
       </c>
       <c r="R8" s="4">
-        <f>O6</f>
-        <v>101.878</v>
-      </c>
-      <c r="U8" s="13" t="s">
+        <f>O4</f>
+        <v>75.281999999999996</v>
+      </c>
+      <c r="S8" s="20"/>
+      <c r="U8" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="V8" s="19">
+      <c r="V8" s="17">
         <v>1</v>
       </c>
     </row>
@@ -1024,17 +1207,17 @@
         <v>4.2</v>
       </c>
       <c r="Q9" s="4" t="str">
-        <f>E2</f>
-        <v>2-00</v>
+        <f>N6</f>
+        <v>5-04</v>
       </c>
       <c r="R9" s="4">
-        <f>F2</f>
-        <v>122.697</v>
-      </c>
-      <c r="U9" s="13" t="s">
+        <f>O6</f>
+        <v>101.878</v>
+      </c>
+      <c r="U9" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="V9" s="19">
+      <c r="V9" s="17">
         <v>1</v>
       </c>
     </row>
@@ -1058,18 +1241,17 @@
         <v>4.1740000000000004</v>
       </c>
       <c r="Q10" s="4" t="str">
-        <f>K6</f>
-        <v>4-04</v>
+        <f>E2</f>
+        <v>2-00</v>
       </c>
       <c r="R10" s="4">
-        <f>L6</f>
-        <v>19.396999999999998</v>
-      </c>
-      <c r="S10" s="22"/>
-      <c r="U10" s="13" t="s">
+        <f>F2</f>
+        <v>122.697</v>
+      </c>
+      <c r="U10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="V10" s="17">
+      <c r="V10" s="15">
         <v>3</v>
       </c>
     </row>
@@ -1093,17 +1275,18 @@
         <v>11.717000000000001</v>
       </c>
       <c r="Q11" s="4" t="str">
-        <f>H4</f>
-        <v>3-02</v>
+        <f>K6</f>
+        <v>4-04</v>
       </c>
       <c r="R11" s="4">
-        <f>I4</f>
-        <v>61.018999999999998</v>
-      </c>
-      <c r="U11" s="13" t="s">
+        <f>L6</f>
+        <v>19.396999999999998</v>
+      </c>
+      <c r="S11" s="20"/>
+      <c r="U11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="V11" s="19">
+      <c r="V11" s="17">
         <v>1</v>
       </c>
     </row>
@@ -1115,18 +1298,17 @@
         <v>10.834</v>
       </c>
       <c r="Q12" s="4" t="str">
-        <f>B31</f>
-        <v>1-29</v>
+        <f>H4</f>
+        <v>3-02</v>
       </c>
       <c r="R12" s="4">
-        <f>C31</f>
-        <v>16.401</v>
-      </c>
-      <c r="S12" s="20"/>
-      <c r="U12" s="13" t="s">
+        <f>I4</f>
+        <v>61.018999999999998</v>
+      </c>
+      <c r="U12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="V12" s="19">
+      <c r="V12" s="17">
         <v>1</v>
       </c>
     </row>
@@ -1137,18 +1319,23 @@
       <c r="C13">
         <v>2.7290000000000001</v>
       </c>
+      <c r="G13" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="24"/>
       <c r="Q13" s="4" t="str">
-        <f>B10</f>
-        <v>1-08</v>
+        <f>B31</f>
+        <v>1-29</v>
       </c>
       <c r="R13" s="4">
-        <f>C10</f>
-        <v>10.523999999999999</v>
-      </c>
-      <c r="U13" s="13" t="s">
+        <f>C31</f>
+        <v>16.401</v>
+      </c>
+      <c r="S13" s="18"/>
+      <c r="U13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="V13" s="21">
+      <c r="V13" s="19">
         <v>4</v>
       </c>
     </row>
@@ -1159,19 +1346,24 @@
       <c r="C14">
         <v>2.907</v>
       </c>
+      <c r="G14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="Q14" s="4" t="str">
-        <f>B36</f>
-        <v>1-34</v>
+        <f>B10</f>
+        <v>1-08</v>
       </c>
       <c r="R14" s="4">
-        <f>C36</f>
-        <v>28.693000000000001</v>
-      </c>
-      <c r="S14" s="20"/>
-      <c r="U14" s="13" t="s">
+        <f>C10</f>
+        <v>10.523999999999999</v>
+      </c>
+      <c r="U14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="V14" s="21">
+      <c r="V14" s="19">
         <v>4</v>
       </c>
     </row>
@@ -1182,18 +1374,25 @@
       <c r="C15">
         <v>2.5539999999999998</v>
       </c>
+      <c r="G15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="25">
+        <v>3</v>
+      </c>
       <c r="Q15" s="4" t="str">
-        <f>K11</f>
-        <v>4-09</v>
+        <f>B36</f>
+        <v>1-34</v>
       </c>
       <c r="R15" s="4">
-        <f>L11</f>
-        <v>18.587</v>
-      </c>
-      <c r="U15" s="13" t="s">
+        <f>C36</f>
+        <v>28.693000000000001</v>
+      </c>
+      <c r="S15" s="18"/>
+      <c r="U15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="V15" s="21">
+      <c r="V15" s="19">
         <v>4</v>
       </c>
     </row>
@@ -1204,126 +1403,173 @@
       <c r="C16">
         <v>2.46</v>
       </c>
+      <c r="G16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="25">
+        <v>3</v>
+      </c>
       <c r="Q16" s="4" t="str">
+        <f>K11</f>
+        <v>4-09</v>
+      </c>
+      <c r="R16" s="4">
+        <f>L11</f>
+        <v>18.587</v>
+      </c>
+      <c r="U16" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="V16" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>2.8820000000000001</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="25">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="4" t="str">
         <f>B35</f>
         <v>1-33</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R17" s="4">
         <f>C35</f>
         <v>31.459</v>
       </c>
-      <c r="U16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="V16" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17">
-        <v>2.8820000000000001</v>
-      </c>
-      <c r="Q17" s="4" t="str">
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18">
+        <v>2.3809999999999998</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="25">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="4" t="str">
         <f>B2</f>
         <v>1-00</v>
       </c>
-      <c r="R17" s="4">
+      <c r="R18" s="4">
         <f>C2</f>
         <v>15.377000000000001</v>
       </c>
-      <c r="S17" s="18"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18">
-        <v>2.3809999999999998</v>
-      </c>
-      <c r="Q18" s="4" t="str">
+      <c r="S18" s="16"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19">
+        <v>2.4289999999999998</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="4" t="str">
         <f>B6</f>
         <v>1-04</v>
       </c>
-      <c r="R18" s="4">
+      <c r="R19" s="4">
         <f>C6</f>
         <v>38.436</v>
       </c>
     </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19">
-        <v>2.4289999999999998</v>
-      </c>
-      <c r="Q19" s="4" t="str">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>2.9089999999999998</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="4" t="str">
         <f>N8</f>
         <v>5-06</v>
       </c>
-      <c r="R19" s="4">
+      <c r="R20" s="4">
         <f>O8</f>
         <v>20.689</v>
       </c>
-      <c r="S19" s="20"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20">
-        <v>2.9089999999999998</v>
-      </c>
-      <c r="Q20" s="4" t="str">
+      <c r="S20" s="18"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21">
+        <v>2.5590000000000002</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="4" t="str">
         <f>N5</f>
         <v>5-03</v>
       </c>
-      <c r="R20" s="4">
+      <c r="R21" s="4">
         <f>O5</f>
         <v>13.927</v>
       </c>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21">
-        <v>2.5590000000000002</v>
-      </c>
-      <c r="Q21" s="4" t="str">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>2.456</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="25">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="4" t="str">
         <f>N7</f>
         <v>5-05</v>
       </c>
-      <c r="R21" s="4">
+      <c r="R22" s="4">
         <f>O7</f>
         <v>18.943999999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22">
-        <v>2.456</v>
-      </c>
-      <c r="Q22" s="4" t="str">
-        <f>B12</f>
-        <v>1-10</v>
-      </c>
-      <c r="R22" s="4">
-        <f>C12</f>
-        <v>10.834</v>
-      </c>
-      <c r="S22" s="22"/>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C23">
         <v>2.8109999999999999</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="25">
+        <v>1</v>
       </c>
       <c r="N23" s="6" t="s">
         <v>66</v>
@@ -1332,59 +1578,105 @@
         <f>SUM(C2:C36,F2:F5,I2:I4,L2:L11,O2:O11)</f>
         <v>1460.0329999999999</v>
       </c>
-      <c r="Q23" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="R23" s="9">
-        <f>SUM(R2:R22)</f>
-        <v>1065.4669999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="Q23" s="4" t="str">
+        <f>B12</f>
+        <v>1-10</v>
+      </c>
+      <c r="R23" s="4">
+        <f>C12</f>
+        <v>10.834</v>
+      </c>
+      <c r="S23" s="20"/>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C24">
         <v>2.3330000000000002</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="R24" s="9">
+        <f>SUM(R3:R23)</f>
+        <v>1065.4669999999999</v>
       </c>
       <c r="U24">
         <f>SUM(1460-1065)</f>
         <v>395</v>
       </c>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="V24">
+        <f>395/1460.03</f>
+        <v>0.27054238611535381</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C25">
         <v>2.5070000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="G25" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H25" s="25">
+        <v>4</v>
+      </c>
+      <c r="V25" s="23">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C26">
         <v>2.4820000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="G26" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C27">
         <v>2.8079999999999998</v>
       </c>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="G27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C28">
         <v>2.3069999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="G28" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
@@ -1392,7 +1684,7 @@
         <v>2.48</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1400,7 +1692,7 @@
         <v>16.515000000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>59</v>
       </c>
@@ -1408,7 +1700,7 @@
         <v>16.401</v>
       </c>
     </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>60</v>
       </c>
@@ -1449,14 +1741,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="U1:V1"/>
+    <mergeCell ref="G13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <ignoredErrors>
-    <ignoredError sqref="U3 U9:U10 U12" twoDigitTextYear="1"/>
+    <ignoredError sqref="U3 U9:U10 U12 G15 G21:G22 G24" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1466,114 +1759,388 @@
   <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="B1:J19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="F13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="33.75" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="2" width="8.5703125"/>
+    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="4" max="6" width="8.5703125"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="26" customWidth="1"/>
+    <col min="9" max="9" width="95.5703125" customWidth="1"/>
+    <col min="10" max="14" width="8.5703125"/>
+    <col min="15" max="15" width="8.5703125" customWidth="1"/>
+    <col min="16" max="1022" width="8.5703125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.5">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="10" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="G10" s="27"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+    </row>
+    <row r="11" spans="2:10" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="12"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="27"/>
+    </row>
+    <row r="12" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="12"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="27"/>
+    </row>
+    <row r="13" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="12"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="27"/>
+    </row>
+    <row r="14" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="12"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="27"/>
+    </row>
+    <row r="15" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="12"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="27"/>
+    </row>
+    <row r="16" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="12"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" spans="6:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="12"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="6:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="12"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="6:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="G19" s="27"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H17:H18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:H21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="8.5703125"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="1025" width="8.5703125"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="6" width="8.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+    </row>
+    <row r="4" spans="3:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="C4" s="27"/>
+      <c r="D4" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="3:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="str">
-        <f t="shared" ref="C1:C8" si="0">"1-0"&amp;B1</f>
-        <v>1-00</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>1-01</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>1-02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="F5" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+    </row>
+    <row r="6" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>1-03</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="F6" s="40">
+        <v>3</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+    </row>
+    <row r="7" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="40">
+        <v>3</v>
+      </c>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+    </row>
+    <row r="8" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="40">
+        <v>3</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+    </row>
+    <row r="9" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="41">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>1-04</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>1-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="42">
+        <v>1</v>
+      </c>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+    </row>
+    <row r="11" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="42">
+        <v>1</v>
+      </c>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+    </row>
+    <row r="12" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="42">
+        <v>1</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+    </row>
+    <row r="13" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="40">
+        <v>3</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="42">
+        <v>1</v>
+      </c>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+    </row>
+    <row r="15" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>1-06</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>1-010</v>
-      </c>
+      <c r="F15" s="42">
+        <v>1</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="41">
+        <v>4</v>
+      </c>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="41">
+        <v>4</v>
+      </c>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+    </row>
+    <row r="18" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="41">
+        <v>4</v>
+      </c>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+    </row>
+    <row r="19" spans="3:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="42">
+        <v>1</v>
+      </c>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="D4:G4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="E6 E12" twoDigitTextYear="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>